--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,43 +446,181 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ASFALIA</t>
+          <t>ΠΡΕΣΒΥΩΠΙΑ ΔΕΞΙ</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MΥΩΠΙΑ ΔΕΞΙ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ΙΔ ΡΑΝΤΕΒΟΥ</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>υπερμετρωπία ΔΕΞΙ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AΣΤΙΓΜΑΤΙΣΜΟΣ δεξι</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ΚΟΣΤΟΣ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PHONE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>idapo</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ΗΜΕΡΟΜΗΝΙΑ</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Βαθμός μυωπίας αριστερό μάτι</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>βαθμός υπερμετρωπίας αριστερό μάτι</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Βαθμος πρεσβυωπία αριστερό μάτι</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Πίεση αριστερού ματιού</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>βαθμός αστιγματισμού αριστερό</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>10-10-10</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>122</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ASASAS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>123</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11S1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S1S1</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10-10-11</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
